--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Sabre_OneWay" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Description</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Sabre air oneway booking for DOMESTIC location for 1 Adult with On Account payment mode</t>
   </si>
   <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO|PAYNOW</t>
-  </si>
-  <si>
     <t>OneWay</t>
   </si>
   <si>
@@ -95,21 +92,9 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>Sabre air oneway booking for DOMESTIC location 1 Adult and 1 child with On Account payment mode</t>
-  </si>
-  <si>
     <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
   <si>
-    <t>Sabre air oneway booking for DOMESTIC location for 1 adult and 1 infant with On Account payment mode</t>
-  </si>
-  <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN</t>
-  </si>
-  <si>
-    <t>Sabre air oneway booking for DOMESTIC location for 1 adult .1child and 1 infant with On Account payment mode</t>
-  </si>
-  <si>
     <t>SJC-SDF</t>
   </si>
   <si>
@@ -120,24 +105,6 @@
   </si>
   <si>
     <t>25|32</t>
-  </si>
-  <si>
-    <t>Sabre air round trip booking for DOMESTIC location for 1 adult and 1 child with On Account payment mode</t>
-  </si>
-  <si>
-    <t>Sabre air round trip booking for DOMESTIC location for 1 adult and 1 infant with On Account payment mode</t>
-  </si>
-  <si>
-    <t>RNO-SDF</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>Sabre air round trip booking for DOMESTIC location for 1 adult .1 child and 1 infant with On Account payment mode</t>
-  </si>
-  <si>
-    <t>Preferred</t>
   </si>
 </sst>
 </file>
@@ -172,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -216,17 +183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -304,13 +260,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,32 +278,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,8 +1045,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="A1:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="33"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
@@ -1121,8 +1071,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q5" totalsRowShown="0">
-  <autoFilter ref="A1:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
@@ -1433,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1422,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1484,13 +1434,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -1513,19 +1463,19 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>25</v>
       </c>
       <c r="F2" s="5">
@@ -1537,176 +1487,29 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="b">
+      <c r="I2" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="15">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="15">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="17"/>
+      <c r="Q2" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1560,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1769,13 +1572,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -1798,20 +1601,20 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>32</v>
+      <c r="A2" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1822,176 +1625,29 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="b">
+      <c r="I2" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="17"/>
+      <c r="Q2" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>25|32</t>
+  </si>
+  <si>
+    <t>Sabre air oneway booking for DOMESTIC location 1 Adult and 1 child with On Account payment mode</t>
+  </si>
+  <si>
+    <t>Sabre air oneway booking for DOMESTIC location for 1 adult and 1 infant with On Account payment mode</t>
+  </si>
+  <si>
+    <t>Sabre air oneway booking for DOMESTIC location for 1 adult .1child and 1 infant with On Account payment mode</t>
+  </si>
+  <si>
+    <t>Sabre air round trip booking for DOMESTIC location for 1 adult and 1 child with On Account payment mode</t>
+  </si>
+  <si>
+    <t>Sabre air round trip booking for DOMESTIC location for 1 adult and 1 infant with On Account payment mode</t>
+  </si>
+  <si>
+    <t>RNO-SDF</t>
+  </si>
+  <si>
+    <t>Sabre air round trip booking for DOMESTIC location for 1 adult .1 child and 1 infant with On Account payment mode</t>
   </si>
 </sst>
 </file>
@@ -244,23 +265,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -294,7 +313,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -308,7 +330,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -661,7 +685,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -891,9 +917,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1045,8 +1069,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="A1:Q5"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="33"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
@@ -1071,8 +1095,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q5" totalsRowShown="0">
+  <autoFilter ref="A1:Q5"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
@@ -1383,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +1533,154 @@
         <v>24</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1818,154 @@
         <v>24</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -74,9 +74,6 @@
     <t>OneWay</t>
   </si>
   <si>
-    <t>AUS-LAS</t>
-  </si>
-  <si>
     <t>Economy</t>
   </si>
   <si>
@@ -92,12 +89,6 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
-  </si>
-  <si>
-    <t>SJC-SDF</t>
-  </si>
-  <si>
     <t>Sabre air round trip booking for DOMESTIC location for 1 Adult with On Account payment mode</t>
   </si>
   <si>
@@ -122,10 +113,16 @@
     <t>Sabre air round trip booking for DOMESTIC location for 1 adult and 1 infant with On Account payment mode</t>
   </si>
   <si>
-    <t>RNO-SDF</t>
-  </si>
-  <si>
     <t>Sabre air round trip booking for DOMESTIC location for 1 adult .1 child and 1 infant with On Account payment mode</t>
+  </si>
+  <si>
+    <t>LOGIN|Search|AddToCart|CHECKOUTTRIP|ENTERPAXINFO|CONFIRMPAXINFO</t>
+  </si>
+  <si>
+    <t>ATL-FLL</t>
+  </si>
+  <si>
+    <t>LAX-LAS</t>
   </si>
 </sst>
 </file>
@@ -371,6 +368,25 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -551,25 +567,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1101,20 +1098,20 @@
     <tableColumn id="1" name="Description" dataDxfId="16"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
     <tableColumn id="3" name="TripType" dataDxfId="14"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
-    <tableColumn id="6" name="Adults" dataDxfId="11"/>
-    <tableColumn id="7" name="Infants" dataDxfId="10"/>
-    <tableColumn id="8" name="Children" dataDxfId="9"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="0"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
+    <tableColumn id="6" name="Adults" dataDxfId="12"/>
+    <tableColumn id="7" name="Infants" dataDxfId="11"/>
+    <tableColumn id="8" name="Children" dataDxfId="10"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="15" name="UserType" dataDxfId="3"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1409,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,13 +1488,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13">
         <v>25</v>
@@ -1515,38 +1512,38 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E3" s="13">
         <v>25</v>
@@ -1564,38 +1561,38 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E4" s="13">
         <v>25</v>
@@ -1613,38 +1610,38 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13">
         <v>25</v>
@@ -1662,22 +1659,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1695,7 +1692,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,19 +1770,19 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1800,41 +1797,41 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1849,41 +1846,41 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1898,41 +1895,41 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1947,22 +1944,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Sabre.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>LAX-LAS</t>
+  </si>
+  <si>
+    <t>SOUTHWEST</t>
   </si>
 </sst>
 </file>
@@ -368,25 +371,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -567,6 +551,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1098,20 +1101,20 @@
     <tableColumn id="1" name="Description" dataDxfId="16"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
     <tableColumn id="3" name="TripType" dataDxfId="14"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="0"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
-    <tableColumn id="6" name="Adults" dataDxfId="12"/>
-    <tableColumn id="7" name="Infants" dataDxfId="11"/>
-    <tableColumn id="8" name="Children" dataDxfId="10"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="3"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
+    <tableColumn id="6" name="Adults" dataDxfId="11"/>
+    <tableColumn id="7" name="Infants" dataDxfId="10"/>
+    <tableColumn id="8" name="Children" dataDxfId="9"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1691,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1710,7 @@
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>21</v>
@@ -1852,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>21</v>
@@ -1901,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>21</v>
@@ -1950,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>21</v>
